--- a/biology/Botanique/Athyrium_×boreo-occidentali-indobharaticola-birianum/Athyrium_×boreo-occidentali-indobharaticola-birianum.xlsx
+++ b/biology/Botanique/Athyrium_×boreo-occidentali-indobharaticola-birianum/Athyrium_×boreo-occidentali-indobharaticola-birianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Athyrium_%C3%97boreo-occidentali-indobharaticola-birianum</t>
+          <t>Athyrium_×boreo-occidentali-indobharaticola-birianum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Athyrium ×boreo-occidentali-indobharaticola-birianum est une espèce hybride de fougères, de la famille de Dryopteridaceae ou des Woodsiaceae selon certains auteurs.
 Elle est issue du croisement entre Athyrium pectinatum C.Presl et Athyrium schimperi subsp. biserrulatum (Christ) Fraser-Jenk.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Athyrium_%C3%97boreo-occidentali-indobharaticola-birianum</t>
+          <t>Athyrium_×boreo-occidentali-indobharaticola-birianum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce hybride est accessoirement remarquable pour son épithète spécifique. Celui-ci est l'un des plus longs de la nomenclature botanique, parmi les noms valides. C'est aussi l'un de ceux qui comprennent le plus de traits d'union, puisque l'on en compte 3.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Athyrium_%C3%97boreo-occidentali-indobharaticola-birianum</t>
+          <t>Athyrium_×boreo-occidentali-indobharaticola-birianum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Athyrium ×boreo-occidentali-indobharaticola-birianum sur THE IPNI Index
-Athyrium ×boreo-occidentali-indobharaticola-birianum sur Tropicos[1]</t>
+Athyrium ×boreo-occidentali-indobharaticola-birianum sur Tropicos</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Athyrium_%C3%97boreo-occidentali-indobharaticola-birianum</t>
+          <t>Athyrium_×boreo-occidentali-indobharaticola-birianum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Le site recense l'espèce avec une coquille
